--- a/low-flow-index/dados-saida/senges.xlsx
+++ b/low-flow-index/dados-saida/senges.xlsx
@@ -433,10 +433,10 @@
         <v>30466</v>
       </c>
       <c r="C3" s="2">
-        <v>44243</v>
+        <v>44257</v>
       </c>
       <c r="E3" s="3">
-        <v>13778</v>
+        <v>13792</v>
       </c>
     </row>
   </sheetData>
